--- a/Team-Data/2007-08/2-19-2007-08.xlsx
+++ b/Team-Data/2007-08/2-19-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -687,16 +754,16 @@
         <v>79.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
@@ -717,22 +784,22 @@
         <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>7.8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
         <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
@@ -741,25 +808,25 @@
         <v>94.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.1</v>
+        <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
       </c>
       <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
         <v>18</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -771,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
@@ -789,16 +856,16 @@
         <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -816,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.804</v>
+        <v>0.82</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J3" t="n">
-        <v>75.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O3" t="n">
         <v>21.1</v>
@@ -887,16 +954,16 @@
         <v>27.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U3" t="n">
         <v>21.8</v>
@@ -911,22 +978,22 @@
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,16 +1017,16 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -968,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -980,22 +1047,22 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
         <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>6.1</v>
@@ -1060,7 +1127,7 @@
         <v>17.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
         <v>17.8</v>
@@ -1078,34 +1145,34 @@
         <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V4" t="n">
         <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
@@ -1114,28 +1181,28 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
         <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1147,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
@@ -1159,10 +1226,10 @@
         <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
@@ -1180,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1323,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1341,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW5" t="n">
         <v>14</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>14</v>
@@ -1362,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1394,31 +1461,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.547</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
         <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>18.8</v>
@@ -1439,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U6" t="n">
         <v>19.4</v>
@@ -1463,37 +1530,37 @@
         <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1514,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1532,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1541,10 +1608,10 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
         <v>5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1678,19 +1745,19 @@
         <v>6</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1711,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,10 +1843,10 @@
         <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L8" t="n">
         <v>6.3</v>
@@ -1788,28 +1855,28 @@
         <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
         <v>44.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
@@ -1818,25 +1885,25 @@
         <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1905,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
         <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
         <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O9" t="n">
         <v>18.6</v>
@@ -1982,16 +2049,16 @@
         <v>0.755</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
         <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
@@ -2003,7 +2070,7 @@
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
@@ -2012,13 +2079,13 @@
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
@@ -2054,13 +2121,13 @@
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
         <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.604</v>
+        <v>0.615</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>40.5</v>
       </c>
       <c r="J10" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
         <v>9.699999999999999</v>
@@ -2152,28 +2219,28 @@
         <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V10" t="n">
         <v>13.5</v>
@@ -2188,7 +2255,7 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22.2</v>
@@ -2197,19 +2264,19 @@
         <v>109.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2233,10 +2300,10 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2245,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J11" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
         <v>6.7</v>
@@ -2337,19 +2404,19 @@
         <v>0.338</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
         <v>44.2</v>
@@ -2364,10 +2431,10 @@
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
         <v>19.6</v>
@@ -2379,10 +2446,10 @@
         <v>95.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2403,10 +2470,10 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
@@ -2415,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
@@ -2439,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,10 +2643,10 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2603,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2767,16 +2834,16 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2797,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2850,70 +2917,70 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.4</v>
       </c>
       <c r="M14" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
         <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
         <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
@@ -2922,16 +2989,16 @@
         <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
         <v>5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2952,19 +3019,19 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>14</v>
@@ -2973,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,16 +3049,16 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -3032,49 +3099,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>0.264</v>
+        <v>0.269</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
         <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
         <v>0.737</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
         <v>31.7</v>
@@ -3083,16 +3150,16 @@
         <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
@@ -3110,43 +3177,43 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3167,10 +3234,10 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3182,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>19</v>
@@ -3361,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3516,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3543,7 +3610,7 @@
         <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>0.212</v>
+        <v>0.196</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
         <v>83.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
@@ -3611,13 +3678,13 @@
         <v>0.331</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
@@ -3629,19 +3696,19 @@
         <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V18" t="n">
         <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
         <v>23.6</v>
@@ -3650,13 +3717,13 @@
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.3</v>
+        <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,16 +3738,16 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
@@ -3695,25 +3762,25 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4032,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4071,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.302</v>
+        <v>0.288</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
         <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="R21" t="n">
         <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
         <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V21" t="n">
         <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
@@ -4190,19 +4257,19 @@
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,40 +4281,40 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
       </c>
       <c r="AQ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS21" t="n">
         <v>24</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4259,7 +4326,7 @@
         <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,10 +4338,10 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.618</v>
+        <v>0.611</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,37 +4391,37 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
         <v>0.469</v>
       </c>
       <c r="L22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M22" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374</v>
+        <v>0.369</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4369,19 +4436,19 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
         <v>21.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
         <v>104</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,10 +4457,10 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,13 +4493,13 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4447,13 +4514,13 @@
         <v>22</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,7 +4573,7 @@
         <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.454</v>
@@ -4515,19 +4582,19 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="O23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.701</v>
+        <v>0.704</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
@@ -4539,16 +4606,16 @@
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.8</v>
@@ -4557,25 +4624,25 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4587,13 +4654,13 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4602,34 +4669,34 @@
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4817,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.528</v>
+        <v>0.538</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K25" t="n">
         <v>0.453</v>
@@ -4879,58 +4946,58 @@
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
         <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V25" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W25" t="n">
         <v>5.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4963,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4975,13 +5042,13 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -5002,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5101,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.462</v>
+        <v>0.451</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
         <v>79.2</v>
@@ -5058,22 +5125,22 @@
         <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O26" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
         <v>10.3</v>
@@ -5082,13 +5149,13 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U26" t="n">
         <v>18.8</v>
       </c>
       <c r="V26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
@@ -5097,28 +5164,28 @@
         <v>3.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
         <v>22.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -5127,7 +5194,7 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5139,10 +5206,10 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5172,22 +5239,22 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY26" t="n">
         <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5243,10 +5310,10 @@
         <v>7.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O27" t="n">
         <v>16.5</v>
@@ -5258,46 +5325,46 @@
         <v>0.754</v>
       </c>
       <c r="R27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U27" t="n">
         <v>21.6</v>
       </c>
       <c r="V27" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>5</v>
@@ -5315,10 +5382,10 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5327,19 +5394,19 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
         <v>19</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
         <v>38</v>
       </c>
       <c r="G28" t="n">
-        <v>0.269</v>
+        <v>0.255</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M28" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.338</v>
+        <v>0.333</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
@@ -5437,22 +5504,22 @@
         <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W28" t="n">
         <v>6.5</v>
@@ -5470,28 +5537,28 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
         <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
@@ -5500,28 +5567,28 @@
         <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
         <v>11</v>
       </c>
-      <c r="AR28" t="n">
-        <v>12</v>
-      </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>23</v>
@@ -5545,10 +5612,10 @@
         <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5667,10 +5734,10 @@
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,13 +5785,13 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.648</v>
+        <v>0.642</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M30" t="n">
         <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O30" t="n">
         <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA30" t="n">
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5852,13 +5919,13 @@
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,19 +5937,19 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,13 +5961,13 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
@@ -5995,10 +6062,10 @@
         <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>7.7</v>
@@ -6010,7 +6077,7 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
@@ -6019,10 +6086,10 @@
         <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,7 +6101,7 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>16</v>
@@ -6049,7 +6116,7 @@
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>18</v>
@@ -6073,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
@@ -6085,10 +6152,10 @@
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-19-2007-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
